--- a/0_输入数据验证.xlsx
+++ b/0_输入数据验证.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0401s</t>
+          <t>0401l</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0401s</t>
+          <t>0401l</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0401s</t>
+          <t>0401l</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0401s</t>
+          <t>0401l</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,18 +583,148 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0401l</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>0401s</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0401s</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0401s</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0401s</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0401s</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>5/5</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
         <v>19</v>
       </c>
     </row>
@@ -609,7 +739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +810,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -721,7 +851,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -762,7 +892,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -803,7 +933,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -844,7 +974,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -885,7 +1015,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -926,7 +1056,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -967,7 +1097,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1008,7 +1138,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1049,7 +1179,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1090,7 +1220,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1131,7 +1261,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1172,7 +1302,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1213,7 +1343,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1254,7 +1384,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1295,7 +1425,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1336,7 +1466,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1377,7 +1507,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1418,7 +1548,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1459,7 +1589,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1500,7 +1630,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1541,7 +1671,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1582,7 +1712,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1623,7 +1753,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1664,7 +1794,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1705,7 +1835,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1746,7 +1876,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1787,7 +1917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1828,7 +1958,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1869,7 +1999,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1910,7 +2040,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1951,7 +2081,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1992,7 +2122,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2033,7 +2163,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2074,7 +2204,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2115,7 +2245,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2156,7 +2286,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2197,7 +2327,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2238,7 +2368,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2279,7 +2409,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2320,7 +2450,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2361,7 +2491,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,7 +2532,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2443,7 +2573,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2484,7 +2614,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2525,7 +2655,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2566,7 +2696,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2607,7 +2737,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2648,7 +2778,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2689,7 +2819,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2730,7 +2860,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2771,7 +2901,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2812,7 +2942,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2853,7 +2983,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2894,7 +3024,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2935,7 +3065,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2976,7 +3106,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3017,7 +3147,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3058,7 +3188,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3099,7 +3229,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3140,7 +3270,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3181,7 +3311,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3222,7 +3352,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3263,7 +3393,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3304,7 +3434,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3345,7 +3475,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3386,7 +3516,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3427,7 +3557,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3468,7 +3598,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3509,7 +3639,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3550,7 +3680,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3591,7 +3721,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3632,7 +3762,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3673,7 +3803,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3714,7 +3844,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3755,7 +3885,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3796,7 +3926,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3837,7 +3967,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3878,7 +4008,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3919,7 +4049,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3960,7 +4090,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4001,7 +4131,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4042,7 +4172,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4083,7 +4213,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4124,7 +4254,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4165,7 +4295,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4206,7 +4336,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4247,7 +4377,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4288,7 +4418,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4329,7 +4459,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4370,7 +4500,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4411,7 +4541,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4452,7 +4582,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4493,7 +4623,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4534,7 +4664,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1-0401s</t>
+          <t>1-0401l</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4564,6 +4694,3901 @@
         <v>200</v>
       </c>
       <c r="K96" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>40</v>
+      </c>
+      <c r="I97" t="n">
+        <v>50</v>
+      </c>
+      <c r="J97" t="n">
+        <v>50</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>530</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>40</v>
+      </c>
+      <c r="I98" t="n">
+        <v>530</v>
+      </c>
+      <c r="J98" t="n">
+        <v>530</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>60</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>11</v>
+      </c>
+      <c r="H99" t="n">
+        <v>40</v>
+      </c>
+      <c r="I99" t="n">
+        <v>500</v>
+      </c>
+      <c r="J99" t="n">
+        <v>440</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>30</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>40</v>
+      </c>
+      <c r="I100" t="n">
+        <v>270</v>
+      </c>
+      <c r="J100" t="n">
+        <v>240</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H101" t="n">
+        <v>40</v>
+      </c>
+      <c r="I101" t="n">
+        <v>25</v>
+      </c>
+      <c r="J101" t="n">
+        <v>20</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>310</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>40</v>
+      </c>
+      <c r="I102" t="n">
+        <v>310</v>
+      </c>
+      <c r="J102" t="n">
+        <v>310</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>40</v>
+      </c>
+      <c r="I103" t="n">
+        <v>200</v>
+      </c>
+      <c r="J103" t="n">
+        <v>200</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>5</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>120</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>40</v>
+      </c>
+      <c r="I104" t="n">
+        <v>980</v>
+      </c>
+      <c r="J104" t="n">
+        <v>860</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>60</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>40</v>
+      </c>
+      <c r="I105" t="n">
+        <v>520</v>
+      </c>
+      <c r="J105" t="n">
+        <v>460</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>9,10,11,12,13,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>10</v>
+      </c>
+      <c r="E106" t="n">
+        <v>90</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>41</v>
+      </c>
+      <c r="H106" t="n">
+        <v>40</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>5</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>11</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>40</v>
+      </c>
+      <c r="I107" t="n">
+        <v>200</v>
+      </c>
+      <c r="J107" t="n">
+        <v>200</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>5</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>12</v>
+      </c>
+      <c r="E108" t="n">
+        <v>120</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>32</v>
+      </c>
+      <c r="H108" t="n">
+        <v>40</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1280</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>13</v>
+      </c>
+      <c r="E109" t="n">
+        <v>90</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>41</v>
+      </c>
+      <c r="H109" t="n">
+        <v>40</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>5</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>14</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>10</v>
+      </c>
+      <c r="H110" t="n">
+        <v>40</v>
+      </c>
+      <c r="I110" t="n">
+        <v>400</v>
+      </c>
+      <c r="J110" t="n">
+        <v>400</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>5</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>15</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>40</v>
+      </c>
+      <c r="I111" t="n">
+        <v>80</v>
+      </c>
+      <c r="J111" t="n">
+        <v>80</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>16</v>
+      </c>
+      <c r="E112" t="n">
+        <v>30</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7</v>
+      </c>
+      <c r="H112" t="n">
+        <v>40</v>
+      </c>
+      <c r="I112" t="n">
+        <v>310</v>
+      </c>
+      <c r="J112" t="n">
+        <v>280</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>5</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>17</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>40</v>
+      </c>
+      <c r="I113" t="n">
+        <v>40</v>
+      </c>
+      <c r="J113" t="n">
+        <v>40</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>18</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>30</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>40</v>
+      </c>
+      <c r="I114" t="n">
+        <v>30</v>
+      </c>
+      <c r="J114" t="n">
+        <v>30</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>19</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>40</v>
+      </c>
+      <c r="I115" t="n">
+        <v>200</v>
+      </c>
+      <c r="J115" t="n">
+        <v>200</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>6</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>40</v>
+      </c>
+      <c r="I116" t="n">
+        <v>50</v>
+      </c>
+      <c r="J116" t="n">
+        <v>50</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>6</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>530</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>40</v>
+      </c>
+      <c r="I117" t="n">
+        <v>530</v>
+      </c>
+      <c r="J117" t="n">
+        <v>530</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>60</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>11</v>
+      </c>
+      <c r="H118" t="n">
+        <v>40</v>
+      </c>
+      <c r="I118" t="n">
+        <v>500</v>
+      </c>
+      <c r="J118" t="n">
+        <v>440</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>6</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>30</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>40</v>
+      </c>
+      <c r="I119" t="n">
+        <v>270</v>
+      </c>
+      <c r="J119" t="n">
+        <v>240</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>6</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H120" t="n">
+        <v>40</v>
+      </c>
+      <c r="I120" t="n">
+        <v>25</v>
+      </c>
+      <c r="J120" t="n">
+        <v>20</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>6</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>310</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>40</v>
+      </c>
+      <c r="I121" t="n">
+        <v>310</v>
+      </c>
+      <c r="J121" t="n">
+        <v>310</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>6</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5</v>
+      </c>
+      <c r="H122" t="n">
+        <v>40</v>
+      </c>
+      <c r="I122" t="n">
+        <v>200</v>
+      </c>
+      <c r="J122" t="n">
+        <v>200</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>6</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>120</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H123" t="n">
+        <v>40</v>
+      </c>
+      <c r="I123" t="n">
+        <v>980</v>
+      </c>
+      <c r="J123" t="n">
+        <v>860</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>6</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>60</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H124" t="n">
+        <v>40</v>
+      </c>
+      <c r="I124" t="n">
+        <v>520</v>
+      </c>
+      <c r="J124" t="n">
+        <v>460</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>9,10,11,12,13,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>10</v>
+      </c>
+      <c r="E125" t="n">
+        <v>90</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>41</v>
+      </c>
+      <c r="H125" t="n">
+        <v>40</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>11</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5</v>
+      </c>
+      <c r="H126" t="n">
+        <v>40</v>
+      </c>
+      <c r="I126" t="n">
+        <v>200</v>
+      </c>
+      <c r="J126" t="n">
+        <v>200</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>12</v>
+      </c>
+      <c r="E127" t="n">
+        <v>120</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>32</v>
+      </c>
+      <c r="H127" t="n">
+        <v>40</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1280</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>13</v>
+      </c>
+      <c r="E128" t="n">
+        <v>90</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>41</v>
+      </c>
+      <c r="H128" t="n">
+        <v>40</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>14</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>10</v>
+      </c>
+      <c r="H129" t="n">
+        <v>40</v>
+      </c>
+      <c r="I129" t="n">
+        <v>400</v>
+      </c>
+      <c r="J129" t="n">
+        <v>400</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>15</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>40</v>
+      </c>
+      <c r="I130" t="n">
+        <v>80</v>
+      </c>
+      <c r="J130" t="n">
+        <v>80</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>16</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7</v>
+      </c>
+      <c r="H131" t="n">
+        <v>40</v>
+      </c>
+      <c r="I131" t="n">
+        <v>310</v>
+      </c>
+      <c r="J131" t="n">
+        <v>280</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>6</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>17</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>40</v>
+      </c>
+      <c r="I132" t="n">
+        <v>40</v>
+      </c>
+      <c r="J132" t="n">
+        <v>40</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>6</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>18</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>30</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>40</v>
+      </c>
+      <c r="I133" t="n">
+        <v>30</v>
+      </c>
+      <c r="J133" t="n">
+        <v>30</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>6</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>19</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5</v>
+      </c>
+      <c r="H134" t="n">
+        <v>40</v>
+      </c>
+      <c r="I134" t="n">
+        <v>200</v>
+      </c>
+      <c r="J134" t="n">
+        <v>200</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>7</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>40</v>
+      </c>
+      <c r="I135" t="n">
+        <v>50</v>
+      </c>
+      <c r="J135" t="n">
+        <v>50</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>7</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>530</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>40</v>
+      </c>
+      <c r="I136" t="n">
+        <v>530</v>
+      </c>
+      <c r="J136" t="n">
+        <v>530</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>7</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>60</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>11</v>
+      </c>
+      <c r="H137" t="n">
+        <v>40</v>
+      </c>
+      <c r="I137" t="n">
+        <v>500</v>
+      </c>
+      <c r="J137" t="n">
+        <v>440</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>7</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6</v>
+      </c>
+      <c r="H138" t="n">
+        <v>40</v>
+      </c>
+      <c r="I138" t="n">
+        <v>270</v>
+      </c>
+      <c r="J138" t="n">
+        <v>240</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>7</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H139" t="n">
+        <v>40</v>
+      </c>
+      <c r="I139" t="n">
+        <v>25</v>
+      </c>
+      <c r="J139" t="n">
+        <v>20</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>7</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>310</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>40</v>
+      </c>
+      <c r="I140" t="n">
+        <v>310</v>
+      </c>
+      <c r="J140" t="n">
+        <v>310</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>7</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5</v>
+      </c>
+      <c r="H141" t="n">
+        <v>40</v>
+      </c>
+      <c r="I141" t="n">
+        <v>200</v>
+      </c>
+      <c r="J141" t="n">
+        <v>200</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>120</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H142" t="n">
+        <v>40</v>
+      </c>
+      <c r="I142" t="n">
+        <v>980</v>
+      </c>
+      <c r="J142" t="n">
+        <v>860</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>7</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>60</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H143" t="n">
+        <v>40</v>
+      </c>
+      <c r="I143" t="n">
+        <v>520</v>
+      </c>
+      <c r="J143" t="n">
+        <v>460</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>9,10,11,12,13,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>7</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>10</v>
+      </c>
+      <c r="E144" t="n">
+        <v>90</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>41</v>
+      </c>
+      <c r="H144" t="n">
+        <v>40</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>7</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>11</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>40</v>
+      </c>
+      <c r="I145" t="n">
+        <v>200</v>
+      </c>
+      <c r="J145" t="n">
+        <v>200</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>7</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>12</v>
+      </c>
+      <c r="E146" t="n">
+        <v>120</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>32</v>
+      </c>
+      <c r="H146" t="n">
+        <v>40</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1280</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>7</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>13</v>
+      </c>
+      <c r="E147" t="n">
+        <v>90</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>41</v>
+      </c>
+      <c r="H147" t="n">
+        <v>40</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>7</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>14</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>10</v>
+      </c>
+      <c r="H148" t="n">
+        <v>40</v>
+      </c>
+      <c r="I148" t="n">
+        <v>400</v>
+      </c>
+      <c r="J148" t="n">
+        <v>400</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>7</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>15</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="n">
+        <v>40</v>
+      </c>
+      <c r="I149" t="n">
+        <v>80</v>
+      </c>
+      <c r="J149" t="n">
+        <v>80</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>7</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>16</v>
+      </c>
+      <c r="E150" t="n">
+        <v>30</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7</v>
+      </c>
+      <c r="H150" t="n">
+        <v>40</v>
+      </c>
+      <c r="I150" t="n">
+        <v>310</v>
+      </c>
+      <c r="J150" t="n">
+        <v>280</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>7</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>17</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>40</v>
+      </c>
+      <c r="I151" t="n">
+        <v>40</v>
+      </c>
+      <c r="J151" t="n">
+        <v>40</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>7</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>18</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>30</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>40</v>
+      </c>
+      <c r="I152" t="n">
+        <v>30</v>
+      </c>
+      <c r="J152" t="n">
+        <v>30</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>7</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>19</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5</v>
+      </c>
+      <c r="H153" t="n">
+        <v>40</v>
+      </c>
+      <c r="I153" t="n">
+        <v>200</v>
+      </c>
+      <c r="J153" t="n">
+        <v>200</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>8</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>40</v>
+      </c>
+      <c r="I154" t="n">
+        <v>50</v>
+      </c>
+      <c r="J154" t="n">
+        <v>50</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>8</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>530</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>40</v>
+      </c>
+      <c r="I155" t="n">
+        <v>530</v>
+      </c>
+      <c r="J155" t="n">
+        <v>530</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>8</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>60</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>11</v>
+      </c>
+      <c r="H156" t="n">
+        <v>40</v>
+      </c>
+      <c r="I156" t="n">
+        <v>500</v>
+      </c>
+      <c r="J156" t="n">
+        <v>440</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>8</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>30</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6</v>
+      </c>
+      <c r="H157" t="n">
+        <v>40</v>
+      </c>
+      <c r="I157" t="n">
+        <v>270</v>
+      </c>
+      <c r="J157" t="n">
+        <v>240</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>8</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H158" t="n">
+        <v>40</v>
+      </c>
+      <c r="I158" t="n">
+        <v>25</v>
+      </c>
+      <c r="J158" t="n">
+        <v>20</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>8</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>310</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>40</v>
+      </c>
+      <c r="I159" t="n">
+        <v>310</v>
+      </c>
+      <c r="J159" t="n">
+        <v>310</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>8</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5</v>
+      </c>
+      <c r="H160" t="n">
+        <v>40</v>
+      </c>
+      <c r="I160" t="n">
+        <v>200</v>
+      </c>
+      <c r="J160" t="n">
+        <v>200</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>8</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>120</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H161" t="n">
+        <v>40</v>
+      </c>
+      <c r="I161" t="n">
+        <v>980</v>
+      </c>
+      <c r="J161" t="n">
+        <v>860</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>8</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>60</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H162" t="n">
+        <v>40</v>
+      </c>
+      <c r="I162" t="n">
+        <v>520</v>
+      </c>
+      <c r="J162" t="n">
+        <v>460</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>9,10,11,12,13,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>8</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>10</v>
+      </c>
+      <c r="E163" t="n">
+        <v>90</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>41</v>
+      </c>
+      <c r="H163" t="n">
+        <v>40</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>8</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>11</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5</v>
+      </c>
+      <c r="H164" t="n">
+        <v>40</v>
+      </c>
+      <c r="I164" t="n">
+        <v>200</v>
+      </c>
+      <c r="J164" t="n">
+        <v>200</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>8</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>12</v>
+      </c>
+      <c r="E165" t="n">
+        <v>120</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>32</v>
+      </c>
+      <c r="H165" t="n">
+        <v>40</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1280</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>8</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>13</v>
+      </c>
+      <c r="E166" t="n">
+        <v>90</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>41</v>
+      </c>
+      <c r="H166" t="n">
+        <v>40</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>8</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>14</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>10</v>
+      </c>
+      <c r="H167" t="n">
+        <v>40</v>
+      </c>
+      <c r="I167" t="n">
+        <v>400</v>
+      </c>
+      <c r="J167" t="n">
+        <v>400</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>8</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>15</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2</v>
+      </c>
+      <c r="H168" t="n">
+        <v>40</v>
+      </c>
+      <c r="I168" t="n">
+        <v>80</v>
+      </c>
+      <c r="J168" t="n">
+        <v>80</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>8</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>16</v>
+      </c>
+      <c r="E169" t="n">
+        <v>30</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7</v>
+      </c>
+      <c r="H169" t="n">
+        <v>40</v>
+      </c>
+      <c r="I169" t="n">
+        <v>310</v>
+      </c>
+      <c r="J169" t="n">
+        <v>280</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>8</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>17</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>40</v>
+      </c>
+      <c r="I170" t="n">
+        <v>40</v>
+      </c>
+      <c r="J170" t="n">
+        <v>40</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>8</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>18</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>30</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>40</v>
+      </c>
+      <c r="I171" t="n">
+        <v>30</v>
+      </c>
+      <c r="J171" t="n">
+        <v>30</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>8</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>19</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5</v>
+      </c>
+      <c r="H172" t="n">
+        <v>40</v>
+      </c>
+      <c r="I172" t="n">
+        <v>200</v>
+      </c>
+      <c r="J172" t="n">
+        <v>200</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>9</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="n">
+        <v>40</v>
+      </c>
+      <c r="I173" t="n">
+        <v>50</v>
+      </c>
+      <c r="J173" t="n">
+        <v>50</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>9</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>530</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>40</v>
+      </c>
+      <c r="I174" t="n">
+        <v>530</v>
+      </c>
+      <c r="J174" t="n">
+        <v>530</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>9</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>60</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>11</v>
+      </c>
+      <c r="H175" t="n">
+        <v>40</v>
+      </c>
+      <c r="I175" t="n">
+        <v>500</v>
+      </c>
+      <c r="J175" t="n">
+        <v>440</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>9</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>30</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>6</v>
+      </c>
+      <c r="H176" t="n">
+        <v>40</v>
+      </c>
+      <c r="I176" t="n">
+        <v>270</v>
+      </c>
+      <c r="J176" t="n">
+        <v>240</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>9</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H177" t="n">
+        <v>40</v>
+      </c>
+      <c r="I177" t="n">
+        <v>25</v>
+      </c>
+      <c r="J177" t="n">
+        <v>20</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>9</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>310</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>40</v>
+      </c>
+      <c r="I178" t="n">
+        <v>310</v>
+      </c>
+      <c r="J178" t="n">
+        <v>310</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>9</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5</v>
+      </c>
+      <c r="H179" t="n">
+        <v>40</v>
+      </c>
+      <c r="I179" t="n">
+        <v>200</v>
+      </c>
+      <c r="J179" t="n">
+        <v>200</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>9</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>120</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H180" t="n">
+        <v>40</v>
+      </c>
+      <c r="I180" t="n">
+        <v>980</v>
+      </c>
+      <c r="J180" t="n">
+        <v>860</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>9</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>60</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H181" t="n">
+        <v>40</v>
+      </c>
+      <c r="I181" t="n">
+        <v>520</v>
+      </c>
+      <c r="J181" t="n">
+        <v>460</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>9,10,11,12,13,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>9</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>10</v>
+      </c>
+      <c r="E182" t="n">
+        <v>90</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>41</v>
+      </c>
+      <c r="H182" t="n">
+        <v>40</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>9</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>11</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>40</v>
+      </c>
+      <c r="I183" t="n">
+        <v>200</v>
+      </c>
+      <c r="J183" t="n">
+        <v>200</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>9</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>12</v>
+      </c>
+      <c r="E184" t="n">
+        <v>120</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>32</v>
+      </c>
+      <c r="H184" t="n">
+        <v>40</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1280</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>19,20,21,22,23,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>9</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>13</v>
+      </c>
+      <c r="E185" t="n">
+        <v>90</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>41</v>
+      </c>
+      <c r="H185" t="n">
+        <v>40</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1640</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>29,30,31,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>9</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>14</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>10</v>
+      </c>
+      <c r="H186" t="n">
+        <v>40</v>
+      </c>
+      <c r="I186" t="n">
+        <v>400</v>
+      </c>
+      <c r="J186" t="n">
+        <v>400</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>9</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>15</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2</v>
+      </c>
+      <c r="H187" t="n">
+        <v>40</v>
+      </c>
+      <c r="I187" t="n">
+        <v>80</v>
+      </c>
+      <c r="J187" t="n">
+        <v>80</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>9</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>16</v>
+      </c>
+      <c r="E188" t="n">
+        <v>30</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>7</v>
+      </c>
+      <c r="H188" t="n">
+        <v>40</v>
+      </c>
+      <c r="I188" t="n">
+        <v>310</v>
+      </c>
+      <c r="J188" t="n">
+        <v>280</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>3,4,5,6,7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>9</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>17</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>40</v>
+      </c>
+      <c r="I189" t="n">
+        <v>40</v>
+      </c>
+      <c r="J189" t="n">
+        <v>40</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>9</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>18</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>30</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>40</v>
+      </c>
+      <c r="I190" t="n">
+        <v>30</v>
+      </c>
+      <c r="J190" t="n">
+        <v>30</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>9</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1-0401s</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>19</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>5</v>
+      </c>
+      <c r="H191" t="n">
+        <v>40</v>
+      </c>
+      <c r="I191" t="n">
+        <v>200</v>
+      </c>
+      <c r="J191" t="n">
+        <v>200</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>40</t>
         </is>
@@ -4605,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4613,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4621,7 +8646,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -4629,7 +8654,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +8662,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -4645,7 +8670,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -4653,7 +8678,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -4661,7 +8686,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -4669,7 +8694,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -4677,7 +8702,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -4685,7 +8710,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -4693,7 +8718,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -4701,7 +8726,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -4709,7 +8734,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -4717,7 +8742,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -4725,7 +8750,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -4733,7 +8758,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -4741,7 +8766,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -4749,7 +8774,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -4757,7 +8782,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -4765,7 +8790,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -4773,7 +8798,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -4781,7 +8806,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -4789,7 +8814,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -4797,7 +8822,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -4805,7 +8830,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -4813,7 +8838,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -4821,7 +8846,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -4829,7 +8854,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -4837,7 +8862,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -4845,7 +8870,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -4853,7 +8878,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -4861,7 +8886,7 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
